--- a/settings/en/template_glades.xlsx
+++ b/settings/en/template_glades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\game_mod\against_storm\export_analysis\settings\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18980AB-E9B5-40D0-B193-99E97A9FF0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C4E7E-3D8F-4B5C-AC7F-A3E14112CACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="419">
   <si>
     <t>__________________________________________________________</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1026,10 +1026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is the simple analysis of the data sheet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1%~2%</t>
   </si>
   <si>
@@ -1130,10 +1126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Original Glade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Storm Water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1162,15 +1154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ores</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>You have a higher chance to encounter fertile soil, I did not calculate fertile soil from farm ruins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marshland have equal chance to discover Copper or Coal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1242,78 +1226,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for original glade</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coastal Grove</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chance to generate </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> veins in the original glade</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2037,6 +1949,149 @@
     <t>Draw glades from this group! The glades might be:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>This is the simple analysis of the data sheet. Note: This might not be accurate enough for the actual game play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashen Thicket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ore Encounter chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opper</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oal</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intial Glade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a rougly chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forbidden: Ashen Thicket 50.26%. Dangerous: Ashen Thicket 48.83%</t>
+  </si>
+  <si>
+    <t>Forbidden: Coral Forest 63.04%, Ashen Thicket 30.60%。Dangerous: Ashen Thicket 29.67%. Small: Ashen Thicket 12.95%</t>
+  </si>
+  <si>
+    <t>Forbidden: Coastal Grove 81.4%. Dangerous: Coastal Grove 79.98%，Ashen Thicket 48.83%. Small: Coastal Grove 37.40%。Initial: Coastal Grove 10%</t>
+  </si>
+  <si>
+    <r>
+      <t>Coastal Grove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has many coal cores, even in its initial glade.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coral Forest has more salt ore in forbidden glades</t>
+  </si>
+  <si>
+    <t>In Ashen Thicket, salt ore has half chance to encounter, compare to copper and coal.</t>
+  </si>
+  <si>
+    <t>m0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update to game ver 1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update to game ver 1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n total:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: the two new biome in v1.8 DLC: Rocky Ravine &amp; Bamboo Flats use the same generation config, which is used by Royal Woodlands, but their ore types and tree types generation are different.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2045,7 +2100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2131,6 +2186,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2305,7 +2376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2405,9 +2476,19 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2690,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2740,13 +2821,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="10">
-        <v>45597</v>
+        <v>45871</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2971,7 +3052,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="P21" s="20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
@@ -3079,7 +3160,7 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>415</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -3096,7 +3177,7 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>416</v>
       </c>
       <c r="Q31" s="19" t="s">
         <v>58</v>
@@ -3107,7 +3188,7 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>413</v>
       </c>
       <c r="P32" s="20" t="s">
         <v>74</v>
@@ -3118,7 +3199,7 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="Q33" s="19" t="s">
         <v>78</v>
@@ -3128,6 +3209,9 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>228</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -3140,6 +3224,9 @@
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>231</v>
+      </c>
       <c r="H35" s="5" t="s">
         <v>56</v>
       </c>
@@ -3158,6 +3245,9 @@
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="Q36" s="19" t="s">
@@ -3168,6 +3258,9 @@
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>230</v>
+      </c>
       <c r="P37" s="20" t="s">
         <v>92</v>
       </c>
@@ -5538,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5950B-893E-4809-8B53-6B159CA1E339}">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,91 +5649,84 @@
         <v>234</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="53"/>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="A3" s="53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>249</v>
-      </c>
+      <c r="A6" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="26" t="s">
-        <v>256</v>
-      </c>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+        <v>239</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>248</v>
+      </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
       <c r="B8" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="26"/>
+        <v>242</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>249</v>
+      </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>252</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -5648,13 +5734,13 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>253</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -5663,127 +5749,139 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="B14" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="E17" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="31">
+      <c r="C18" s="31">
         <v>0.22520000000000001</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="E16" s="31">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C17" s="31">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D17" s="31">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="E17" s="31">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="31">
-        <v>7.8200000000000006E-2</v>
       </c>
       <c r="D18" s="31">
         <v>0.14169999999999999</v>
       </c>
       <c r="E18" s="31">
-        <v>0.2104</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
-      <c r="B19" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D19" s="31">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="E19" s="31">
+        <v>9.3100000000000002E-2</v>
+      </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="31">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0.2104</v>
+      </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="25" t="s">
+        <v>265</v>
+      </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -5791,13 +5889,13 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
@@ -5805,95 +5903,82 @@
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="26" t="s">
-        <v>275</v>
-      </c>
+      <c r="F23" s="26"/>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="G24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
-      <c r="B25" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="31">
-        <v>0.48780000000000001</v>
-      </c>
-      <c r="D25" s="31">
-        <v>0.47320000000000001</v>
-      </c>
-      <c r="E25" s="31">
-        <v>0.42509999999999998</v>
-      </c>
-      <c r="F25" s="31">
-        <v>0.187</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>273</v>
-      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="D26" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="E26" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25" t="s">
-        <v>272</v>
-      </c>
+      <c r="A26" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
-      <c r="B27" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26" t="s">
-        <v>274</v>
+      <c r="B27" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="D27" s="31">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="E27" s="31">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0.187</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
@@ -5911,211 +5996,220 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26" t="s">
+        <v>406</v>
+      </c>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B32" s="26"/>
+      <c r="A32" s="49" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="50"/>
       <c r="C32" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="E32" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="50"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="C33" s="32">
-        <v>0.66</v>
-      </c>
-      <c r="D33" s="32">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+        <v>402</v>
+      </c>
+      <c r="C33" s="51">
+        <v>0.63</v>
+      </c>
+      <c r="D33" s="51">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E33" s="51">
+        <v>0.21</v>
+      </c>
+      <c r="F33" s="50"/>
+      <c r="G33" s="25" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="32">
-        <v>0.37</v>
-      </c>
-      <c r="D34" s="32">
-        <v>0.52</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+        <v>403</v>
+      </c>
+      <c r="C34" s="51">
+        <v>0.49</v>
+      </c>
+      <c r="D34" s="51">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E34" s="51">
+        <v>0.21</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="49" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="28" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="32">
-        <v>0.24</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+        <v>404</v>
+      </c>
+      <c r="C35" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="51">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E35" s="51">
+        <v>0.21</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
-      <c r="B37" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="C37" s="33">
-        <v>1.06</v>
-      </c>
-      <c r="D37" s="33">
-        <v>0.34</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" s="33">
-        <v>0.46</v>
-      </c>
-      <c r="D38" s="33">
-        <v>0.73</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
-      <c r="B39" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="33">
-        <v>0.27</v>
-      </c>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="C41" s="33">
-        <v>32.15</v>
-      </c>
-      <c r="D41" s="33">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="E41" s="33">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
-      <c r="B42" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C42" s="33">
-        <v>1.4</v>
-      </c>
-      <c r="D42" s="33">
-        <v>0.88</v>
-      </c>
-      <c r="E42" s="33">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" s="33">
-        <v>23.02</v>
-      </c>
-      <c r="D43" s="33">
-        <v>21.53</v>
-      </c>
-      <c r="E43" s="33">
-        <v>18</v>
-      </c>
-      <c r="F43" s="25"/>
+      <c r="A43" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="26"/>
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C44" s="32">
+        <v>0.66</v>
+      </c>
+      <c r="D44" s="32">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" s="32">
+        <v>0.37</v>
+      </c>
+      <c r="D45" s="32">
+        <v>0.52</v>
+      </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="32">
+        <v>0.24</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
@@ -6127,72 +6221,70 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>261</v>
-      </c>
+      <c r="A48" s="26"/>
+      <c r="B48" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="33">
+        <v>1.06</v>
+      </c>
+      <c r="D48" s="33">
+        <v>0.34</v>
+      </c>
+      <c r="E48" s="34"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="C49" s="32">
-        <v>0.08</v>
-      </c>
-      <c r="D49" s="32">
-        <v>0.15</v>
-      </c>
-      <c r="E49" s="26"/>
+        <v>275</v>
+      </c>
+      <c r="C49" s="33">
+        <v>0.46</v>
+      </c>
+      <c r="D49" s="33">
+        <v>0.73</v>
+      </c>
+      <c r="E49" s="34"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="32">
-        <v>0.16</v>
+        <v>278</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="33">
+        <v>0.27</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
-      <c r="B51" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="31">
-        <v>0.1351</v>
-      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="31">
-        <v>4.9500000000000002E-2</v>
+        <v>276</v>
+      </c>
+      <c r="C52" s="33">
+        <v>32.15</v>
+      </c>
+      <c r="D52" s="33">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="E52" s="33">
+        <v>2.4300000000000002</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -6200,39 +6292,41 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="G53" s="25"/>
+        <v>277</v>
+      </c>
+      <c r="C53" s="33">
+        <v>1.4</v>
+      </c>
+      <c r="D53" s="33">
+        <v>0.88</v>
+      </c>
+      <c r="E53" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
       <c r="B54" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="G54" s="25"/>
+        <v>280</v>
+      </c>
+      <c r="C54" s="33">
+        <v>23.02</v>
+      </c>
+      <c r="D54" s="33">
+        <v>21.53</v>
+      </c>
+      <c r="E54" s="33">
+        <v>18</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="26" t="s">
-        <v>293</v>
-      </c>
+      <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -6241,55 +6335,43 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
-      <c r="C56" s="47" t="s">
-        <v>294</v>
-      </c>
+      <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C58" s="36">
-        <v>80</v>
-      </c>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="25" t="s">
-        <v>329</v>
-      </c>
+      <c r="E58" s="26"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="C59" s="36">
-        <v>80</v>
-      </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26" t="s">
-        <v>330</v>
+      <c r="A59" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>260</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -6297,12 +6379,14 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="C60" s="36">
-        <v>80</v>
-      </c>
-      <c r="D60" s="26"/>
+        <v>283</v>
+      </c>
+      <c r="C60" s="32">
+        <v>0.08</v>
+      </c>
+      <c r="D60" s="32">
+        <v>0.15</v>
+      </c>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
@@ -6310,14 +6394,12 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
       <c r="B61" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="C61" s="36">
-        <v>80</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C61" s="26"/>
       <c r="D61" s="26"/>
-      <c r="E61" s="26" t="s">
-        <v>346</v>
+      <c r="E61" s="32">
+        <v>0.16</v>
       </c>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
@@ -6325,14 +6407,12 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
       <c r="B62" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="C62" s="36">
-        <v>80</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C62" s="26"/>
       <c r="D62" s="26"/>
-      <c r="E62" s="26" t="s">
-        <v>347</v>
+      <c r="E62" s="31">
+        <v>0.1351</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
@@ -6340,49 +6420,51 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
       <c r="B63" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="C63" s="36">
-        <v>80</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C63" s="25"/>
       <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="E63" s="31">
+        <v>4.9500000000000002E-2</v>
+      </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C64" s="36">
-        <v>80</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C64" s="26"/>
       <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+      <c r="E64" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="C65" s="36">
-        <v>80</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C65" s="26"/>
       <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
+      <c r="E65" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
-      <c r="B66" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="C66" s="36">
-        <v>80</v>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26" t="s">
+        <v>288</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
@@ -6391,11 +6473,9 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
-      <c r="B67" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C67" s="36">
-        <v>80</v>
+      <c r="B67" s="26"/>
+      <c r="C67" s="47" t="s">
+        <v>289</v>
       </c>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
@@ -6404,11 +6484,9 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
-      <c r="B68" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C68" s="36">
-        <v>80</v>
+      <c r="B68" s="26"/>
+      <c r="C68" s="28" t="s">
+        <v>293</v>
       </c>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
@@ -6416,38 +6494,46 @@
       <c r="G68" s="26"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
+      <c r="A69" s="25" t="s">
+        <v>322</v>
+      </c>
       <c r="B69" s="28" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C69" s="36">
         <v>80</v>
       </c>
       <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
+      <c r="E69" s="25" t="s">
+        <v>324</v>
+      </c>
       <c r="F69" s="26"/>
       <c r="G69" s="26"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="26"/>
+      <c r="A70" s="26" t="s">
+        <v>323</v>
+      </c>
       <c r="B70" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="C70" s="37">
-        <v>70</v>
+        <v>295</v>
+      </c>
+      <c r="C70" s="36">
+        <v>80</v>
       </c>
       <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="E70" s="26" t="s">
+        <v>325</v>
+      </c>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
       <c r="B71" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C71" s="37">
-        <v>70</v>
+        <v>296</v>
+      </c>
+      <c r="C71" s="36">
+        <v>80</v>
       </c>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
@@ -6457,36 +6543,40 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C72" s="37">
-        <v>70</v>
+        <v>297</v>
+      </c>
+      <c r="C72" s="36">
+        <v>80</v>
       </c>
       <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="E72" s="26" t="s">
+        <v>341</v>
+      </c>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="C73" s="38">
-        <v>60</v>
+        <v>298</v>
+      </c>
+      <c r="C73" s="36">
+        <v>80</v>
       </c>
       <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="E73" s="26" t="s">
+        <v>342</v>
+      </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C74" s="38">
-        <v>60</v>
+        <v>299</v>
+      </c>
+      <c r="C74" s="36">
+        <v>80</v>
       </c>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
@@ -6496,10 +6586,10 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="C75" s="38">
-        <v>60</v>
+        <v>300</v>
+      </c>
+      <c r="C75" s="36">
+        <v>80</v>
       </c>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
@@ -6509,10 +6599,10 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C76" s="38">
-        <v>60</v>
+        <v>301</v>
+      </c>
+      <c r="C76" s="36">
+        <v>80</v>
       </c>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
@@ -6522,10 +6612,10 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="26"/>
       <c r="B77" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" s="39">
-        <v>50</v>
+        <v>302</v>
+      </c>
+      <c r="C77" s="36">
+        <v>80</v>
       </c>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
@@ -6535,10 +6625,10 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
       <c r="B78" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="C78" s="39">
-        <v>50</v>
+        <v>303</v>
+      </c>
+      <c r="C78" s="36">
+        <v>80</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
@@ -6548,10 +6638,10 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="B79" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" s="39">
-        <v>50</v>
+        <v>304</v>
+      </c>
+      <c r="C79" s="36">
+        <v>80</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
@@ -6561,23 +6651,23 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
       <c r="B80" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="C80" s="40">
-        <v>40</v>
+        <v>305</v>
+      </c>
+      <c r="C80" s="36">
+        <v>80</v>
       </c>
       <c r="D80" s="26"/>
-      <c r="E80" s="25"/>
+      <c r="E80" s="26"/>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C81" s="40">
-        <v>40</v>
+        <v>306</v>
+      </c>
+      <c r="C81" s="37">
+        <v>70</v>
       </c>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
@@ -6587,10 +6677,10 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="C82" s="40">
-        <v>40</v>
+        <v>307</v>
+      </c>
+      <c r="C82" s="37">
+        <v>70</v>
       </c>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
@@ -6600,10 +6690,10 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
       <c r="B83" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C83" s="40">
-        <v>40</v>
+        <v>308</v>
+      </c>
+      <c r="C83" s="37">
+        <v>70</v>
       </c>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
@@ -6613,10 +6703,10 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="C84" s="40">
-        <v>40</v>
+        <v>309</v>
+      </c>
+      <c r="C84" s="38">
+        <v>60</v>
       </c>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
@@ -6626,10 +6716,10 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
       <c r="B85" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="40">
-        <v>40</v>
+        <v>310</v>
+      </c>
+      <c r="C85" s="38">
+        <v>60</v>
       </c>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -6638,22 +6728,24 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
+      <c r="B86" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" s="38">
+        <v>60</v>
+      </c>
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="25" t="s">
-        <v>345</v>
-      </c>
+      <c r="A87" s="26"/>
       <c r="B87" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="C87" s="41">
-        <v>100</v>
+        <v>312</v>
+      </c>
+      <c r="C87" s="38">
+        <v>60</v>
       </c>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
@@ -6663,10 +6755,10 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
       <c r="B88" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="41">
-        <v>100</v>
+        <v>313</v>
+      </c>
+      <c r="C88" s="39">
+        <v>50</v>
       </c>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -6676,10 +6768,10 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="C89" s="41">
-        <v>100</v>
+        <v>314</v>
+      </c>
+      <c r="C89" s="39">
+        <v>50</v>
       </c>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
@@ -6689,10 +6781,10 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
       <c r="B90" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="C90" s="41">
-        <v>100</v>
+        <v>315</v>
+      </c>
+      <c r="C90" s="39">
+        <v>50</v>
       </c>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
@@ -6702,23 +6794,23 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
       <c r="B91" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="C91" s="41">
-        <v>100</v>
+        <v>316</v>
+      </c>
+      <c r="C91" s="40">
+        <v>40</v>
       </c>
       <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
+      <c r="E91" s="25"/>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="C92" s="41">
-        <v>100</v>
+        <v>317</v>
+      </c>
+      <c r="C92" s="40">
+        <v>40</v>
       </c>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -6728,10 +6820,10 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
       <c r="B93" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="C93" s="36">
-        <v>80</v>
+        <v>318</v>
+      </c>
+      <c r="C93" s="40">
+        <v>40</v>
       </c>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
@@ -6741,10 +6833,10 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="C94" s="36">
-        <v>80</v>
+        <v>319</v>
+      </c>
+      <c r="C94" s="40">
+        <v>40</v>
       </c>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
@@ -6754,10 +6846,10 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C95" s="36">
-        <v>80</v>
+        <v>320</v>
+      </c>
+      <c r="C95" s="40">
+        <v>40</v>
       </c>
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
@@ -6767,10 +6859,10 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
       <c r="B96" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="C96" s="36">
-        <v>80</v>
+        <v>321</v>
+      </c>
+      <c r="C96" s="40">
+        <v>40</v>
       </c>
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
@@ -6779,24 +6871,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
-      <c r="B97" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="C97" s="36">
-        <v>80</v>
-      </c>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
+      <c r="A98" s="25" t="s">
+        <v>340</v>
+      </c>
       <c r="B98" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="36">
-        <v>80</v>
+        <v>326</v>
+      </c>
+      <c r="C98" s="41">
+        <v>100</v>
       </c>
       <c r="D98" s="26"/>
       <c r="E98" s="26"/>
@@ -6806,10 +6896,10 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
       <c r="B99" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="C99" s="36">
-        <v>80</v>
+        <v>327</v>
+      </c>
+      <c r="C99" s="41">
+        <v>100</v>
       </c>
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
@@ -6819,10 +6909,10 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C100" s="37">
-        <v>70</v>
+        <v>328</v>
+      </c>
+      <c r="C100" s="41">
+        <v>100</v>
       </c>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
@@ -6831,24 +6921,26 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
+      <c r="B101" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C101" s="41">
+        <v>100</v>
+      </c>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
       <c r="F101" s="26"/>
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>350</v>
-      </c>
+      <c r="A102" s="26"/>
+      <c r="B102" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="41">
+        <v>100</v>
+      </c>
+      <c r="D102" s="26"/>
       <c r="E102" s="26"/>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
@@ -6856,14 +6948,12 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
       <c r="B103" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="D103" s="31">
-        <v>1.4999999999999999E-2</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C103" s="41">
+        <v>100</v>
+      </c>
+      <c r="D103" s="26"/>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
@@ -6871,47 +6961,38 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="26"/>
       <c r="B104" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D104" s="31">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>356</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C104" s="36">
+        <v>80</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
       <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
       <c r="B105" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D105" s="31">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>357</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C105" s="36">
+        <v>80</v>
+      </c>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="26"/>
       <c r="B106" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="C106" s="31">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="D106" s="31">
-        <v>2.2000000000000001E-3</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C106" s="36">
+        <v>80</v>
+      </c>
+      <c r="D106" s="26"/>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -6919,146 +7000,151 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
       <c r="B107" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="C107" s="31">
-        <v>1.8E-3</v>
-      </c>
-      <c r="D107" s="31">
-        <v>1.8E-3</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C107" s="36">
+        <v>80</v>
+      </c>
+      <c r="D107" s="26"/>
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="B108" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="36">
+        <v>80</v>
+      </c>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
       <c r="F108" s="26"/>
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E109" s="28" t="s">
-        <v>261</v>
-      </c>
+      <c r="A109" s="26"/>
+      <c r="B109" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" s="36">
+        <v>80</v>
+      </c>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="26"/>
-      <c r="B110" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="C110" s="31">
-        <v>2.01E-2</v>
-      </c>
-      <c r="D110" s="31">
-        <v>1.06E-2</v>
-      </c>
-      <c r="E110" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="F110" s="25"/>
+      <c r="B110" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="36">
+        <v>80</v>
+      </c>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="26"/>
-      <c r="B111" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="C111" s="31">
-        <v>2.01E-2</v>
-      </c>
-      <c r="D111" s="31">
-        <v>1.06E-2</v>
-      </c>
-      <c r="E111" s="31">
-        <v>1.38E-2</v>
-      </c>
+      <c r="B111" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" s="37">
+        <v>70</v>
+      </c>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
       <c r="F111" s="26"/>
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="26"/>
-      <c r="B112" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="C112" s="31">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="D112" s="31">
-        <v>1.06E-2</v>
-      </c>
-      <c r="E112" s="31">
-        <v>1.38E-2</v>
-      </c>
-      <c r="F112" s="25"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
+      <c r="A113" s="25" t="s">
+        <v>343</v>
+      </c>
       <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
+      <c r="C113" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>345</v>
+      </c>
       <c r="E113" s="26"/>
       <c r="F113" s="26"/>
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="25" t="s">
-        <v>363</v>
-      </c>
+      <c r="A114" s="26"/>
       <c r="B114" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
+        <v>347</v>
+      </c>
+      <c r="C114" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E114" s="26"/>
       <c r="F114" s="26"/>
       <c r="G114" s="26"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="26"/>
-      <c r="B115" t="s">
-        <v>369</v>
-      </c>
-      <c r="C115" s="25"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
+      <c r="B115" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="26"/>
-      <c r="B116" t="s">
-        <v>368</v>
-      </c>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
+      <c r="B116" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D116" s="31">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>352</v>
+      </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
-      <c r="B117" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
+      <c r="B117" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="31">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D117" s="31">
+        <v>2.2000000000000001E-3</v>
+      </c>
       <c r="E117" s="26"/>
       <c r="F117" s="26"/>
       <c r="G117" s="26"/>
@@ -7066,19 +7152,21 @@
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="26"/>
       <c r="B118" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
+        <v>350</v>
+      </c>
+      <c r="C118" s="31">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D118" s="31">
+        <v>1.8E-3</v>
+      </c>
       <c r="E118" s="26"/>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="26"/>
-      <c r="B119" s="25" t="s">
-        <v>372</v>
-      </c>
+      <c r="B119" s="26"/>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
       <c r="E119" s="26"/>
@@ -7086,38 +7174,52 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="26"/>
-      <c r="B120" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
+      <c r="A120" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B120" s="26"/>
+      <c r="C120" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>260</v>
+      </c>
       <c r="F120" s="26"/>
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
+      <c r="B121" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="C121" s="31">
+        <v>2.01E-2</v>
+      </c>
+      <c r="D121" s="31">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E121" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="F121" s="25"/>
       <c r="G121" s="26"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E122" s="28" t="s">
-        <v>261</v>
+      <c r="A122" s="26"/>
+      <c r="B122" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" s="31">
+        <v>2.01E-2</v>
+      </c>
+      <c r="D122" s="31">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E122" s="31">
+        <v>1.38E-2</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
@@ -7125,40 +7227,36 @@
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="26"/>
       <c r="B123" s="35" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C123" s="31">
-        <v>0.27789999999999998</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D123" s="31">
-        <v>0.2361</v>
+        <v>1.06E-2</v>
       </c>
       <c r="E123" s="31">
-        <v>4.1399999999999999E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F123" s="25"/>
       <c r="G123" s="26"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
-      <c r="B124" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="C124" s="31">
-        <v>0.08</v>
-      </c>
-      <c r="D124" s="31">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="E124" s="43" t="s">
-        <v>361</v>
-      </c>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
       <c r="F124" s="26"/>
       <c r="G124" s="26"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
+      <c r="A125" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>362</v>
+      </c>
       <c r="C125" s="26"/>
       <c r="D125" s="26"/>
       <c r="E125" s="26"/>
@@ -7166,17 +7264,21 @@
       <c r="G125" s="26"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
+      <c r="A126" s="26"/>
+      <c r="B126" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126" s="25"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
+      <c r="G126" s="26"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
+      <c r="B127" t="s">
+        <v>363</v>
+      </c>
       <c r="C127" s="26"/>
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
@@ -7184,107 +7286,107 @@
       <c r="G127" s="26"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="B128" s="26"/>
-      <c r="C128" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E128" s="28" t="s">
-        <v>261</v>
-      </c>
+      <c r="A128" s="26"/>
+      <c r="B128" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="26"/>
       <c r="B129" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="C129" s="49">
-        <v>3.27</v>
-      </c>
-      <c r="D129" s="49">
-        <v>2.79</v>
-      </c>
-      <c r="E129" s="49">
-        <v>0.67</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>375</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
       <c r="G129" s="26"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="26"/>
-      <c r="B130" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="C130" s="49"/>
-      <c r="D130" s="49"/>
-      <c r="E130" s="49"/>
+      <c r="B130" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="26"/>
-      <c r="B131" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C131" s="49"/>
-      <c r="D131" s="49"/>
-      <c r="E131" s="49"/>
+      <c r="B131" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="26"/>
-      <c r="B132" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="C132" s="49"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
       <c r="G132" s="26"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="B133" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C133" s="45">
-        <v>2.72</v>
-      </c>
-      <c r="D133" s="49"/>
-      <c r="E133" s="49"/>
+      <c r="A133" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B133" s="26"/>
+      <c r="C133" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" s="26"/>
       <c r="G133" s="26"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="26"/>
-      <c r="B134" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C134" s="44">
-        <v>3.27</v>
-      </c>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
+      <c r="B134" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" s="31">
+        <v>0.27789999999999998</v>
+      </c>
+      <c r="D134" s="31">
+        <v>0.2361</v>
+      </c>
+      <c r="E134" s="31">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="F134" s="25"/>
       <c r="G134" s="26"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="26"/>
-      <c r="B135" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C135" s="44">
-        <v>3.31</v>
-      </c>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
+      <c r="B135" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="D135" s="31">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E135" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="F135" s="26"/>
       <c r="G135" s="26"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -7293,15 +7395,17 @@
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="G137" s="26"/>
+      <c r="A137" s="29"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="26"/>
@@ -7309,99 +7413,119 @@
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
+      <c r="A139" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="B139" s="26"/>
+      <c r="C139" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E139" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
+      <c r="B140" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C140" s="52">
+        <v>3.27</v>
+      </c>
+      <c r="D140" s="52">
+        <v>2.79</v>
+      </c>
+      <c r="E140" s="52">
+        <v>0.67</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>370</v>
+      </c>
       <c r="G140" s="26"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="B141" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141" s="52"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="52"/>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
+      <c r="B142" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
+      <c r="B143" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
       <c r="G143" s="26"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
+      <c r="B144" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="45">
+        <v>2.72</v>
+      </c>
+      <c r="D144" s="52"/>
+      <c r="E144" s="52"/>
       <c r="G144" s="26"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
-      <c r="F145" s="26"/>
+      <c r="B145" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C145" s="44">
+        <v>3.27</v>
+      </c>
+      <c r="D145" s="52"/>
+      <c r="E145" s="52"/>
       <c r="G145" s="26"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="26"/>
-      <c r="B146" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
-      <c r="F146" s="26"/>
+      <c r="B146" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C146" s="44">
+        <v>3.31</v>
+      </c>
+      <c r="D146" s="52"/>
+      <c r="E146" s="52"/>
       <c r="G146" s="26"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="26"/>
       <c r="B147" s="26"/>
-      <c r="C147" s="25" t="s">
-        <v>381</v>
-      </c>
+      <c r="C147" s="26"/>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="26"/>
       <c r="G147" s="26"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -7410,51 +7534,41 @@
       <c r="C148" s="26"/>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
       <c r="G148" s="26"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="26"/>
-      <c r="B149" t="s">
-        <v>30</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>382</v>
-      </c>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="26"/>
       <c r="G149" s="26"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="26"/>
-      <c r="B150" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
-      <c r="G150" s="26"/>
+      <c r="A150" s="29"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="29"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="26"/>
-      <c r="B151" t="s">
-        <v>32</v>
-      </c>
-      <c r="C151" s="26" t="s">
-        <v>382</v>
-      </c>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
+      <c r="A152" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>372</v>
+      </c>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
@@ -7462,14 +7576,10 @@
       <c r="G152" s="26"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="B153" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>385</v>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
@@ -7479,7 +7589,9 @@
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="26"/>
       <c r="B154" s="26"/>
-      <c r="C154" s="25"/>
+      <c r="C154" s="25" t="s">
+        <v>374</v>
+      </c>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
       <c r="F154" s="26"/>
@@ -7506,11 +7618,9 @@
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="26"/>
       <c r="B157" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C157" s="25" t="s">
-        <v>386</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="C157" s="26"/>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
       <c r="F157" s="26"/>
@@ -7520,11 +7630,9 @@
       <c r="A158" s="26"/>
       <c r="B158" s="26"/>
       <c r="C158" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>388</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D158" s="26"/>
       <c r="E158" s="26"/>
       <c r="F158" s="26"/>
       <c r="G158" s="26"/>
@@ -7532,45 +7640,47 @@
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="26"/>
       <c r="B159" s="26"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25" t="s">
-        <v>389</v>
-      </c>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
       <c r="E159" s="26"/>
       <c r="F159" s="26"/>
       <c r="G159" s="26"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25" t="s">
-        <v>393</v>
-      </c>
+      <c r="B160" t="s">
+        <v>30</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D160" s="26"/>
       <c r="E160" s="26"/>
       <c r="F160" s="26"/>
       <c r="G160" s="26"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>391</v>
-      </c>
+      <c r="B161" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D161" s="26"/>
       <c r="E161" s="26"/>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="26" t="s">
-        <v>392</v>
-      </c>
+      <c r="B162" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D162" s="26"/>
       <c r="E162" s="26"/>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -7578,21 +7688,23 @@
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="26"/>
       <c r="B163" s="26"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="26" t="s">
-        <v>394</v>
-      </c>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
       <c r="E163" s="26"/>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="25"/>
-      <c r="D164" s="26" t="s">
-        <v>395</v>
-      </c>
+      <c r="A164" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D164" s="26"/>
       <c r="E164" s="26"/>
       <c r="F164" s="26"/>
       <c r="G164" s="26"/>
@@ -7600,24 +7712,16 @@
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="26"/>
       <c r="B165" s="26"/>
-      <c r="C165" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="D165" s="26" t="s">
-        <v>397</v>
-      </c>
+      <c r="C165" s="25"/>
+      <c r="D165" s="26"/>
       <c r="E165" s="26"/>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="26"/>
-      <c r="B166" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C166" s="25" t="s">
-        <v>398</v>
-      </c>
+      <c r="B166" s="26"/>
+      <c r="C166" s="25"/>
       <c r="D166" s="26"/>
       <c r="E166" s="26"/>
       <c r="F166" s="26"/>
@@ -7635,10 +7739,10 @@
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="26"/>
       <c r="B168" s="25" t="s">
-        <v>399</v>
+        <v>241</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
@@ -7648,30 +7752,34 @@
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="26"/>
       <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
+      <c r="C169" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>383</v>
+      </c>
       <c r="E169" s="26"/>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="B170" s="25" t="s">
-        <v>402</v>
-      </c>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
       <c r="C170" s="25"/>
-      <c r="D170" s="26"/>
+      <c r="D170" s="25" t="s">
+        <v>384</v>
+      </c>
       <c r="E170" s="26"/>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="26"/>
-      <c r="B171" s="25"/>
+      <c r="B171" s="26"/>
       <c r="C171" s="25"/>
-      <c r="D171" s="26"/>
+      <c r="D171" s="25" t="s">
+        <v>388</v>
+      </c>
       <c r="E171" s="26"/>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -7679,17 +7787,23 @@
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
+      <c r="C172" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>386</v>
+      </c>
       <c r="E172" s="26"/>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="25"/>
-      <c r="B173" s="25"/>
-      <c r="C173" s="46"/>
-      <c r="D173" s="26"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="26" t="s">
+        <v>387</v>
+      </c>
       <c r="E173" s="26"/>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -7697,8 +7811,10 @@
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
-      <c r="C174" s="46"/>
-      <c r="D174" s="26"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="26" t="s">
+        <v>389</v>
+      </c>
       <c r="E174" s="26"/>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -7706,8 +7822,10 @@
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="26"/>
       <c r="B175" s="26"/>
-      <c r="C175" s="46"/>
-      <c r="D175" s="26"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="26" t="s">
+        <v>390</v>
+      </c>
       <c r="E175" s="26"/>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
@@ -7715,16 +7833,24 @@
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
-      <c r="C176" s="46"/>
-      <c r="D176" s="26"/>
+      <c r="C176" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D176" s="26" t="s">
+        <v>392</v>
+      </c>
       <c r="E176" s="26"/>
       <c r="F176" s="26"/>
       <c r="G176" s="26"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="46"/>
+      <c r="B177" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177" s="25" t="s">
+        <v>393</v>
+      </c>
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
@@ -7733,7 +7859,7 @@
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="26"/>
       <c r="B178" s="26"/>
-      <c r="C178" s="46"/>
+      <c r="C178" s="26"/>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
       <c r="F178" s="26"/>
@@ -7741,8 +7867,12 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
+      <c r="B179" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C179" s="25" t="s">
+        <v>395</v>
+      </c>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
       <c r="F179" s="26"/>
@@ -7751,17 +7881,120 @@
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="26"/>
       <c r="B180" s="26"/>
-      <c r="C180" s="25"/>
+      <c r="C180" s="26"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
       <c r="F180" s="26"/>
       <c r="G180" s="26"/>
     </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C181" s="25"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="26"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="26"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="26"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="D129:D135"/>
-    <mergeCell ref="E129:E135"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="D140:D146"/>
+    <mergeCell ref="E140:E146"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
